--- a/SchoolManagement/TimeCheck.xlsx
+++ b/SchoolManagement/TimeCheck.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908084D-338E-41BA-ADBA-F312B5D59A9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7988A95A-24C8-4A44-833B-9F0A2F07D95A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>636909673680444565,636909673693554589,636909673705481433,636909673717241605</t>
-  </si>
-  <si>
-    <t>636909675553405132,636909675562050459,636909675565650393,636909675569224496,636909675571589243,636909675573646675,636909675575405782</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>serialId</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>timecheck</t>
+  </si>
+  <si>
+    <t>636909673680444565;636909673693554589;636909673705481433;636909673717241605</t>
+  </si>
+  <si>
+    <t>636909675553405132;636909675562050459;636909675565650393;636909675569224496;636909675571589243;636909675573646675;636909675575405782</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,9 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -344,31 +360,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="133" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="133" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>67282853</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="C2" s="2">
+        <v>43570</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>21046660</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="C3" s="2">
+        <v>43570</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
